--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,131 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>281000</v>
+      </c>
+      <c r="F8" s="3">
         <v>289500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>296800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>295200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>292100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>277600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>273700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>257500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>249100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>241600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>228200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>213800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>215500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,22 +1052,28 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>-2800</v>
       </c>
       <c r="E15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="G15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-3100</v>
       </c>
       <c r="H15" s="3">
         <v>-3100</v>
@@ -1052,13 +1097,19 @@
         <v>-3100</v>
       </c>
       <c r="O15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="P15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-3200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>70900</v>
+      </c>
+      <c r="F17" s="3">
         <v>78600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>79100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>76000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>71000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>98900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>58600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>45300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>43500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>39600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>32200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>27900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>30600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>209800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>210100</v>
+      </c>
+      <c r="F18" s="3">
         <v>210900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>217700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>219200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>221100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>178700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>215100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>212200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>205600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>202000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>196000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>185900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>184900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-193400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-74500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-72500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-72600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-67400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-78800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-61800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-65100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-56000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-51700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-52000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-49200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-47800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>25200</v>
       </c>
       <c r="E21" s="3">
+        <v>144900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>145200</v>
+      </c>
+      <c r="G21" s="3">
         <v>154000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>155400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>162600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>108600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>162200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>156100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>158200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>158800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>152500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>145000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>145500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>136000</v>
+      </c>
+      <c r="F23" s="3">
         <v>136500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>145200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>146600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>153800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>99800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>153300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>147100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>149600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>150300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>144000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>136600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>137200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>35200</v>
+      </c>
+      <c r="F24" s="3">
         <v>32600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>34700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>35900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>38800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>25700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>38600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>34000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-46400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>54200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>53500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>47400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>49300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F26" s="3">
         <v>103900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>110500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>110700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>115000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>74200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>114700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>113100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>196000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>96000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>90500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>89200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>87800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F27" s="3">
         <v>103900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>110500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>110700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>115000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>74200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>114800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>113100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>196000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>96000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>90500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>89200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>87800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,27 +1709,27 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-49800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>193400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F32" s="3">
         <v>74500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>72500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>72600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>67400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>78800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>61800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>65100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>56000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>51700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>52000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>49200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>47800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F33" s="3">
         <v>103900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>110500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>110700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>115000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>74200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>114800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>113100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>146200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>96000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>90500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>89200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>87800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F35" s="3">
         <v>103900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>110500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>110700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>115000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>74200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>114800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>113100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>146200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>96000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>90500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>89200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>87800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1347700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1495800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1029900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>738600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>607700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>290700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>387800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>585400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>632900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>440400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>827800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>790900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>892100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>814300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2037,26 +2216,32 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>229500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>33200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>36700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>52100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2334,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2434,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>723400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>711500</v>
+      </c>
+      <c r="F48" s="3">
         <v>687500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>662100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>647000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>567200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>538500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>541000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>532300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>519800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>517600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>516500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>506500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>504100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>681700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>684500</v>
+      </c>
+      <c r="F49" s="3">
         <v>687400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>690300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>693300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>696500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>699600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>702800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>705900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>709000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>712200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>715300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>718500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>721000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24565800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>23555700</v>
+      </c>
+      <c r="F54" s="3">
         <v>23402700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22960700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>23005700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22388000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>22086500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22220400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22039400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>21275600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>20768500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>20064600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>19152200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18890100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>128200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>221800</v>
+      </c>
+      <c r="F57" s="3">
         <v>224200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>222700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>273100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>216400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>211000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>182600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>183200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>186200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>153300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>107800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>98300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>72600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,31 +2974,37 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>65500</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2751,8 +3024,14 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +3074,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1395200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>695000</v>
+      </c>
+      <c r="F61" s="3">
         <v>644800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>544600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>344400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>439300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>344100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>343900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>343900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>364000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>383900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>383700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>383300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>382700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20482700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19405400</v>
+      </c>
+      <c r="F66" s="3">
         <v>19324400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18967500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19123000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18617700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18432900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18606500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18512800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17814900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>17433800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16804500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16278900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16098500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1870000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1801400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1728500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1647600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1565200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1477200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1428700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1339000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1250300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1124500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1051500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>982300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>914400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4083200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4150400</v>
+      </c>
+      <c r="F76" s="3">
         <v>4078300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3993200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3882600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3770300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3653600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3613900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3526600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3460700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3334700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3260100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2873300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2791600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F81" s="3">
         <v>103900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>110500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>110700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>115000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>74200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>114800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>113100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>146200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>96000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>90500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>89200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>87800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,19 +4023,21 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>8900</v>
       </c>
       <c r="E83" s="3">
         <v>8800</v>
       </c>
       <c r="F83" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="G83" s="3">
         <v>8800</v>
@@ -3649,31 +4046,37 @@
         <v>8800</v>
       </c>
       <c r="I83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>9000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>8600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>102300</v>
       </c>
       <c r="E89" s="3">
+        <v>92700</v>
+      </c>
+      <c r="F89" s="3">
+        <v>124900</v>
+      </c>
+      <c r="G89" s="3">
         <v>67500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>139500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>348100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>133000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>101500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>122800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>95800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>87900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>58700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>142000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>81700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-16800</v>
       </c>
       <c r="E91" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="G91" s="3">
         <v>-23300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-27600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-34600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-19900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-14300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-18100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-7500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-7500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-1242400</v>
       </c>
       <c r="E94" s="3">
+        <v>321900</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-157900</v>
+      </c>
+      <c r="G94" s="3">
         <v>197800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-241100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-597300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-102800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-218200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-608200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-416500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-958200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-214600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-614600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4613,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-33500</v>
       </c>
       <c r="E96" s="3">
+        <v>-32200</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-29600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-28300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-27000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-25700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-25100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-24400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-23700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-23100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-21300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-20700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-20000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>992100</v>
       </c>
       <c r="E100" s="3">
+        <v>51300</v>
+      </c>
+      <c r="F100" s="3">
+        <v>324300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-134400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>418700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>152200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-227800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>69200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>677900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>328400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>561800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>794700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>134900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>429700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>-148000</v>
       </c>
       <c r="E102" s="3">
+        <v>465800</v>
+      </c>
+      <c r="F102" s="3">
+        <v>291400</v>
+      </c>
+      <c r="G102" s="3">
         <v>130900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>317000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-97100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-197600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-47500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>192500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-616900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>233300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-104700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>62400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-103200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,145 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>268300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>267100</v>
+      </c>
+      <c r="F8" s="3">
         <v>272000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>281000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>289500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>296800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>295200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>292100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>277600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>273700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>257500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>249100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>241600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>228200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>213800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>215500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,28 +1098,34 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F15" s="3">
         <v>-2800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>-2900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-2900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-3100</v>
       </c>
       <c r="J15" s="3">
         <v>-3100</v>
@@ -1103,13 +1149,19 @@
         <v>-3100</v>
       </c>
       <c r="Q15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1177,122 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F17" s="3">
         <v>62200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>70900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>78600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>79100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>76000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>71000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>98900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>58600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>45300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>43500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>39600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>32200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>27900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>30600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>224700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>216600</v>
+      </c>
+      <c r="F18" s="3">
         <v>209800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>210100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>210900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>217700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>219200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>221100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>178700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>215100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>212200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>205600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>202000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>196000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>185900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>184900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1311,122 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-151400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-193400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-74000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-74500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-72500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-72600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-67400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-78800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-61800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-65100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-56000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-51700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-52000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-49200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-47800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>74200</v>
+      </c>
+      <c r="F21" s="3">
         <v>25200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>144900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>145200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>154000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>155400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>162600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>108600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>162200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>156100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>158200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>158800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>152500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>145000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>145500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1475,126 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>65200</v>
+      </c>
+      <c r="F23" s="3">
         <v>16400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>136000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>136500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>145200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>146600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>153800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>99800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>153300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>147100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>149600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>150300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>144000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>136600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>137200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F24" s="3">
         <v>4500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>35200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>32600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>34700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>35900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>38800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>38600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>34000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-46400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>54200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>53500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>47400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>49300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1643,126 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>109200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F26" s="3">
         <v>11900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>100800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>103900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>110500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>110700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>115000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>74200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>114700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>113100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>196000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>96000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>90500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>89200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>87800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F27" s="3">
         <v>11900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>100800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>103900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>110500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>110700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>115000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>74200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>114800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>113100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>196000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>96000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>90500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>89200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>87800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1715,27 +1837,27 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-49800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1979,126 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>151400</v>
+      </c>
+      <c r="F32" s="3">
         <v>193400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>74000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>74500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>72500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>72600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>67400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>78800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>61800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>65100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>56000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>51700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>52000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>49200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>47800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F33" s="3">
         <v>11900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>100800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>103900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>110500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>110700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>115000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>74200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>114800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>113100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>146200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>96000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>90500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>89200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>87800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2147,131 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F35" s="3">
         <v>11900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>100800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>103900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>110500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>110700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>115000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>74200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>114800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>113100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>146200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>96000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>90500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>89200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>87800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2312,66 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1934100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1646100</v>
+      </c>
+      <c r="F41" s="3">
         <v>1347700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1495800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1029900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>738600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>607700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>290700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>387800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>585400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>632900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>440400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>827800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>790900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>892100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>814300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2222,26 +2402,32 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>229500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>33200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>36700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>52100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,8 +2644,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,108 +2700,126 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>739100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>732700</v>
+      </c>
+      <c r="F48" s="3">
         <v>723400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>711500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>687500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>662100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>647000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>567200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>538500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>541000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>532300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>519800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>517600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>516500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>506500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>504100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>677300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>679200</v>
+      </c>
+      <c r="F49" s="3">
         <v>681700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>684500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>687400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>690300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>693300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>696500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>699600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>702800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>705900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>709000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>712200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>715300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>718500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>721000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26888300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26380400</v>
+      </c>
+      <c r="F54" s="3">
         <v>24565800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>23555700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>23402700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22960700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>23005700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22388000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22086500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22220400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>22039400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21275600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>20768500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>20064600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>19152200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>18890100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3140,66 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>152500</v>
+      </c>
+      <c r="F57" s="3">
         <v>128200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>221800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>224200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>222700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>273100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>216400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>211000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>182600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>183200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>186200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>153300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>107800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>98300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>72600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,20 +3248,26 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>70100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>65200</v>
+      </c>
+      <c r="F59" s="3">
         <v>65500</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3006,11 +3280,11 @@
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3030,8 +3304,14 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3360,70 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1095200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1247700</v>
+      </c>
+      <c r="F61" s="3">
         <v>1395200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>695000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>644800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>544600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>344400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>439300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>344100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>343900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>343900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>364000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>383900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>383700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>383300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>382700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22702000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22269700</v>
+      </c>
+      <c r="F66" s="3">
         <v>20482700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19405400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19324400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18967500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19123000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>18617700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>18432900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>18606500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18512800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17814900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>17433800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16804500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16278900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16098500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1862000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="F72" s="3">
         <v>1773000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1870000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1801400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1728500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1647600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1565200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1477200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1428700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1339000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1250300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1124500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1051500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>982300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>914400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4186300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4110700</v>
+      </c>
+      <c r="F76" s="3">
         <v>4083200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4150400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4078300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3993200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3882600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3770300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3653600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3613900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3526600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3460700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3334700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3260100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2873300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>2791600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4278,131 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F81" s="3">
         <v>11900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>100800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>103900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>110500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>110700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>115000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>74200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>114800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>113100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>146200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>96000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>90500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>89200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>87800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,25 +4421,27 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F83" s="3">
         <v>8900</v>
-      </c>
-      <c r="E83" s="3">
-        <v>8800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>8700</v>
       </c>
       <c r="G83" s="3">
         <v>8800</v>
       </c>
       <c r="H83" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="I83" s="3">
         <v>8800</v>
@@ -4052,31 +4450,37 @@
         <v>8800</v>
       </c>
       <c r="K83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="L83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4753,70 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>139500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>152800</v>
+      </c>
+      <c r="F89" s="3">
         <v>102300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>92700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>124900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>67500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>139500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>348100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>133000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>101500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>122800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>95800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>87900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>58700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>142000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>81700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4835,66 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-16800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-20300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-27500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-23300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-27600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-34600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-19900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-10700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4999,70 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-223000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1591700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>321900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-157900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>197800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-241100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-597300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-102800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-218200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-608200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-416500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-958200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-214600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-614600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +5081,66 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-33500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-32200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-31000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-29600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-28300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-27000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-25700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-25100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-24400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-23700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-23100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-21300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-20700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-20000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5301,70 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>371500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1737300</v>
+      </c>
+      <c r="F100" s="3">
         <v>992100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>51300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>324300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-134400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>418700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>152200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-227800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>69200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>677900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>328400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>561800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>794700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>134900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>429700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>288000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>298300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-148000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>465800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>291400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>130900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>317000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-97100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-197600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-47500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>192500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-616900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>233300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-104700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>62400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-103200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>273400</v>
+      </c>
+      <c r="E8" s="3">
         <v>268300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>267100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>272000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>281000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>289500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>296800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>295200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>292100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>277600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>273700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>257500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>249100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>241600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>228200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>213800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>215500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,31 +1123,34 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E15" s="3">
         <v>-1900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-2900</v>
       </c>
       <c r="H15" s="3">
         <v>-2900</v>
       </c>
       <c r="I15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-3100</v>
       </c>
       <c r="K15" s="3">
         <v>-3100</v>
@@ -1155,13 +1177,16 @@
         <v>-3100</v>
       </c>
       <c r="S15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="T15" s="3">
         <v>-3200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E17" s="3">
         <v>43600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>50500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>62200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>70900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>78600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>79100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>76000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>71000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>58600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>45300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>43500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>39600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>32200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>27900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>30600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E18" s="3">
         <v>224700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>216600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>209800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>210100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>210900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>217700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>219200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>221100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>178700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>215100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>212200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>205600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>202000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>196000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>185900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>184900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-81500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-86200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-151400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-193400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-74000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-74500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-72500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-72600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-78800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-61800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-65100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-56000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-52000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-49200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-47800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>165300</v>
+      </c>
+      <c r="E21" s="3">
         <v>147600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>74200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>25200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>144900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>145200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>154000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>155400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>108600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>162200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>156100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>158200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>152500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>145000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>145500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>156100</v>
+      </c>
+      <c r="E23" s="3">
         <v>138500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>136000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>136500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>145200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>146600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>153800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>99800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>153300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>147100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>149600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>150300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>144000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>136600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>137200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E24" s="3">
         <v>29300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>14900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>32600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>34700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-46400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>53500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>47400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>49300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E26" s="3">
         <v>109200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>100800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>103900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>110500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>110700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>115000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>74200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>114700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>113100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>196000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>96000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>90500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>89200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E27" s="3">
         <v>109300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>100800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>103900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>110500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>110700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>115000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>114800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>113100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>196000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>96000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>90500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>89200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>87800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1855,12 +1915,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-49800</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>81500</v>
+      </c>
+      <c r="E32" s="3">
         <v>86200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>151400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>193400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>74000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>74500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>72500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>72600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>78800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>61800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>65100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>56000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>52000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>49200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>47800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E33" s="3">
         <v>109300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>100800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>103900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>110500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>110700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>115000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>114800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>113100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>146200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>96000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>90500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>89200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>87800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E35" s="3">
         <v>109300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>100800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>103900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>110500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>110700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>115000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>114800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>113100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>146200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>96000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>90500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>89200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>87800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2393700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1934100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1646100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1347700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1495800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1029900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>738600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>607700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>290700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>387800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>585400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>632900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>440400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>827800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>790900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>892100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>814300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2408,26 +2497,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>229500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>33200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>36700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>52100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>738800</v>
+      </c>
+      <c r="E48" s="3">
         <v>739100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>732700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>723400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>711500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>687500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>662100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>647000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>567200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>538500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>541000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>532300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>519800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>517600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>516500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>506500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>504100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>675500</v>
+      </c>
+      <c r="E49" s="3">
         <v>677300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>679200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>681700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>684500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>687400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>690300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>693300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>696500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>699600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>702800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>705900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>709000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>712200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>715300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>718500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>721000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27162600</v>
+      </c>
+      <c r="E54" s="3">
         <v>26888300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26380400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24565800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23555700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23402700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22960700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23005700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22388000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22086500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22220400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22039400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21275600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20768500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20064600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19152200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18890100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E57" s="3">
         <v>172800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>152500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>128200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>221800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>224200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>222700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>273100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>216400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>211000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>182600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>183200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>186200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>153300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>107800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>98300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>72600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,23 +3387,26 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E59" s="3">
         <v>70100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65500</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3286,8 +3422,8 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,64 +3505,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1095500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1095200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1247700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1395200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>695000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>644800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>544600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>344400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>439300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>344100</v>
-      </c>
-      <c r="M61" s="3">
-        <v>343900</v>
       </c>
       <c r="N61" s="3">
         <v>343900</v>
       </c>
       <c r="O61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="P61" s="3">
         <v>364000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>383900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>383700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>383300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>382700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22890300</v>
+      </c>
+      <c r="E66" s="3">
         <v>22702000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22269700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20482700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19405400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19324400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18967500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19123000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18617700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18432900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18606500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18512800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17814900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17433800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16804500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16278900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16098500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1946900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1862000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1788300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1773000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1870000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1801400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1728500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1647600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1565200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1477200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1428700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1339000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1250300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1124500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1051500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>982300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>914400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4272300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4186300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4110700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4083200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4150400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4078300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3993200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3882600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3770300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3653600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3613900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3526600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3460700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3334700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3260100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2873300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2791600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>120500</v>
+      </c>
+      <c r="E81" s="3">
         <v>109300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>100800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>103900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>110500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>110700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>115000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>114800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>113100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>146200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>96000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>90500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>89200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>87800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,28 +4620,29 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>9100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>8800</v>
       </c>
       <c r="J83" s="3">
         <v>8800</v>
@@ -4456,31 +4654,34 @@
         <v>8800</v>
       </c>
       <c r="M83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>8500</v>
       </c>
       <c r="Q83" s="3">
         <v>8500</v>
       </c>
       <c r="R83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="S83" s="3">
         <v>8400</v>
       </c>
       <c r="T83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="U83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E89" s="3">
         <v>139500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>152800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>102300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>92700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>124900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>67500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>348100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>133000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>101500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>122800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>95800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>87900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>58700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>142000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>81700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-223000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>321900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-157900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>197800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-241100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-597300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-102800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-218200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-608200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-416500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-958200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-214600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-614600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-34900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-33500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-32200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-31000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-29600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-28300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-27000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-25700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-24400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-23700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-21300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-20700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>217200</v>
+      </c>
+      <c r="E100" s="3">
         <v>371500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1737300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>992100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>51300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>324300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-134400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>418700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>152200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-227800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>69200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>677900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>328400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>561800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>794700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>134900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>429700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>459600</v>
+      </c>
+      <c r="E102" s="3">
         <v>288000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>298300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-148000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>465800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>291400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>130900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>317000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-97100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-197600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-47500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>192500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-616900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>233300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-104700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-103200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="E8" s="3">
         <v>273400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>268300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>267100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>272000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>281000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>289500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>296800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>292100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>277600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>273700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>257500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>249100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>241600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>228200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>213800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>215500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,34 +1146,37 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>-1800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-1900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-2600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-2900</v>
       </c>
       <c r="I15" s="3">
         <v>-2900</v>
       </c>
       <c r="J15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-3100</v>
       </c>
       <c r="L15" s="3">
         <v>-3100</v>
@@ -1180,13 +1203,16 @@
         <v>-3100</v>
       </c>
       <c r="T15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="U15" s="3">
         <v>-3200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E17" s="3">
         <v>35800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>43600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>50500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>62200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>70900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>78600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>79100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>76000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>71000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>58600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>45300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>43500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>39600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>32200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>27900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>30600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>234700</v>
+      </c>
+      <c r="E18" s="3">
         <v>237600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>224700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>216600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>209800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>210100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>210900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>217700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>219200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>221100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>178700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>215100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>212200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>205600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>202000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>196000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>185900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>184900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-42400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-81500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-86200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-151400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-193400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-74000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-74500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-72500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-72600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-78800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-61800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-65100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-52000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-49200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-47800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E21" s="3">
         <v>165300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>147600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>74200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>25200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>144900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>145200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>154000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>155400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>162600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>108600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>162200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>156100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>152500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>145000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>145500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>192300</v>
+      </c>
+      <c r="E23" s="3">
         <v>156100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>138500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>16400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>136000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>136500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>145200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>146600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>153800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>99800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>147100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>149600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>150300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>144000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>136600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>137200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E24" s="3">
         <v>35600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>29300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>32600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>34700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>25700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-46400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>54200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>53500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>47400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>49300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E26" s="3">
         <v>120500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>109200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>103900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>110500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>115000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>74200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>113100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>196000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>96000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>90500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>89200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>87800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E27" s="3">
         <v>120500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>109300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>103900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>110500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>115000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>113100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>196000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>96000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>90500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>89200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>87800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1918,12 +1979,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-49800</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E32" s="3">
         <v>81500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>86200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>151400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>193400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>74000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>74500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>72500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>72600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>78800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>61800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>65100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>56000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>52000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>49200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>47800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E33" s="3">
         <v>120500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>109300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>103900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>110500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>115000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>114800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>113100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>146200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>96000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>90500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>89200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>87800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E35" s="3">
         <v>120500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>109300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>103900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>110500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>115000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>114800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>113100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>146200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>96000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>90500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>89200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>87800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2216300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2393700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1934100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1646100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1347700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1495800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1029900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>738600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>607700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>290700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>387800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>585400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>632900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>440400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>827800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>790900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>892100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>814300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2500,26 +2590,29 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>229500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>33200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>36700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>52100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>729400</v>
+      </c>
+      <c r="E48" s="3">
         <v>738800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>739100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>732700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>723400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>711500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>687500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>662100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>647000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>567200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>538500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>541000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>532300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>519800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>517600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>516500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>506500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>504100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>673700</v>
+      </c>
+      <c r="E49" s="3">
         <v>675500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>677300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>679200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>681700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>684500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>687400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>690300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>693300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>696500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>699600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>702800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>705900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>709000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>712200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>715300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>718500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>721000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27276900</v>
+      </c>
+      <c r="E54" s="3">
         <v>27162600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26888300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26380400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24565800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23555700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23402700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22960700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23005700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22388000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22086500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22220400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22039400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21275600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20768500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20064600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19152200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18890100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>418900</v>
+      </c>
+      <c r="E57" s="3">
         <v>179200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>172800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>152500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>128200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>221800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>224200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>222700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>273100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>216400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>211000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>182600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>183200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>186200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>153300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>107800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>98300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>72600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,26 +3524,29 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
         <v>72700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>70100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>65200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65500</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3425,8 +3562,8 @@
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,67 +3648,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1095100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1095500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1095200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1247700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1395200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>695000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>644800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>544600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>344400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>439300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>344100</v>
-      </c>
-      <c r="N61" s="3">
-        <v>343900</v>
       </c>
       <c r="O61" s="3">
         <v>343900</v>
       </c>
       <c r="P61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="Q61" s="3">
         <v>364000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>383900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>383700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>383300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>382700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22893700</v>
+      </c>
+      <c r="E66" s="3">
         <v>22890300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22702000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22269700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20482700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19405400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19324400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18967500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19123000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18617700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18432900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18606500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18512800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17814900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17433800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16804500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16278900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16098500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2059400</v>
+      </c>
+      <c r="E72" s="3">
         <v>1946900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1862000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1788300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1773000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1870000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1801400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1728500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1647600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1565200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1477200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1428700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1339000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1250300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1124500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1051500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>982300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>914400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4383200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4272300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4186300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4110700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4083200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4150400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4078300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3993200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3882600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3770300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3653600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3613900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3526600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3460700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3334700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3260100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2873300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2791600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>148400</v>
+      </c>
+      <c r="E81" s="3">
         <v>120500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>109300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>103900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>110500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>115000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>114800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>113100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>146200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>96000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>90500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>89200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>87800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,31 +4819,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E83" s="3">
         <v>9200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>8800</v>
       </c>
       <c r="K83" s="3">
         <v>8800</v>
@@ -4657,31 +4856,34 @@
         <v>8800</v>
       </c>
       <c r="N83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="O83" s="3">
         <v>8900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>8500</v>
       </c>
       <c r="R83" s="3">
         <v>8500</v>
       </c>
       <c r="S83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="T83" s="3">
         <v>8400</v>
       </c>
       <c r="U83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="V83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E89" s="3">
         <v>157400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>152800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>102300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>92700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>124900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>67500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>139500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>348100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>133000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>101500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>122800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>95800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>87900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>58700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>142000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>81700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-256100</v>
+      </c>
+      <c r="E94" s="3">
         <v>84900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-223000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>321900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-157900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>197800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-241100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-597300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-102800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-218200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-608200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-416500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-958200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-214600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-614600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-35200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-34900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-33500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-32200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-31000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-29600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-28300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-27000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-24400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-23700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-21300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-20700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-79500</v>
+      </c>
+      <c r="E100" s="3">
         <v>217200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>371500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1737300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>992100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>51300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>324300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-134400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>418700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>152200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-227800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>69200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>677900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>328400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>561800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>794700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>134900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>429700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="E102" s="3">
         <v>459600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>288000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>298300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-148000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>465800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>291400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>130900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>317000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-97100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-197600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-47500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>192500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-616900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>233300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-104700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>62400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-103200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,61 +766,64 @@
         <v>264100</v>
       </c>
       <c r="E8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="F8" s="3">
         <v>273400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>268300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>267100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>272000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>281000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>289500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>296800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>295200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>292100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>277600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>273700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>257500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>249100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>241600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>228200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>213800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>215500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,37 +1169,40 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E15" s="3">
         <v>-1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-1800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-2600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-2900</v>
       </c>
       <c r="J15" s="3">
         <v>-2900</v>
       </c>
       <c r="K15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="L15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-3100</v>
       </c>
       <c r="M15" s="3">
         <v>-3100</v>
@@ -1206,13 +1229,16 @@
         <v>-3100</v>
       </c>
       <c r="U15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="V15" s="3">
         <v>-3200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E17" s="3">
         <v>29400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>35800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>43600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>50500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>62200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>70900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>78600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>76000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>71000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>98900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>58600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>45300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>43500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>39600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>32200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>27900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>30600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>240700</v>
+      </c>
+      <c r="E18" s="3">
         <v>234700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>237600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>224700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>216600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>209800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>210100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>210900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>217700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>219200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>221100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>178700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>215100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>212200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>205600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>202000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>196000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>185900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>184900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-42400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-81500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-86200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-151400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-193400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-74000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-74500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-72500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-72600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-78800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-61800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-65100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-56000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-52000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-49200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-47800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>204500</v>
+      </c>
+      <c r="E21" s="3">
         <v>201200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>165300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>147600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>74200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>144900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>145200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>155400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>162600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>108600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>162200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>156100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>158800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>152500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>145000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>145500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>195700</v>
+      </c>
+      <c r="E23" s="3">
         <v>192300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>156100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>138500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>65200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>16400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>136000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>136500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>145200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>146600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>153800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>99800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>153300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>147100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>149600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>150300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>144000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>136600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>137200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E24" s="3">
         <v>43800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>35600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>29300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>32600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>34700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>25700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-46400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>54200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>53500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>47400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>49300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E26" s="3">
         <v>148400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>120500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>109200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>50300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>103900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>110500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>115000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>113100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>196000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>96000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>90500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>89200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>87800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E27" s="3">
         <v>148400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>120500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>109300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>50300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>103900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>110500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>115000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>74200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>113100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>196000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>96000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>90500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>89200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>87800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1982,12 +2043,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-49800</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E32" s="3">
         <v>42400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>81500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>86200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>151400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>193400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>74000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>74500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>72500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>72600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>78800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>61800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>65100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>56000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>52000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>49200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>47800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E33" s="3">
         <v>148400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>109300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>50300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>103900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>110500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>110700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>115000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>114800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>113100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>146200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>96000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>90500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>89200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>87800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E35" s="3">
         <v>148400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>109300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>50300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>103900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>110500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>110700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>115000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>114800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>113100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>146200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>96000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>90500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>89200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>87800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1424200</v>
+      </c>
+      <c r="E41" s="3">
         <v>2216300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2393700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1934100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1646100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1347700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1495800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1029900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>738600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>607700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>290700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>387800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>585400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>632900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>440400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>827800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>790900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>892100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>814300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2593,26 +2683,29 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>229500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>33200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>36700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>52100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,8 +2896,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>729200</v>
+      </c>
+      <c r="E48" s="3">
         <v>729400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>738800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>739100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>732700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>723400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>711500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>687500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>662100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>647000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>567200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>538500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>541000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>532300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>519800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>517600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>516500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>506500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>504100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>672100</v>
+      </c>
+      <c r="E49" s="3">
         <v>673700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>675500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>677300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>679200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>681700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>684500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>687400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>690300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>693300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>696500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>699600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>702800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>705900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>709000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>712200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>715300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>718500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>721000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26605900</v>
+      </c>
+      <c r="E54" s="3">
         <v>27276900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27162600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26888300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26380400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24565800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23555700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23402700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22960700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23005700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22388000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22086500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22220400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22039400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21275600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20768500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20064600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>19152200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18890100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E57" s="3">
         <v>418900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>179200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>172800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>152500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>128200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>221800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>224200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>222700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>273100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>216400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>211000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>182600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>183200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>186200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>153300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>107800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>98300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>72600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,29 +3661,32 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>72700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>70100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>65200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65500</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3565,8 +3702,8 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3589,8 +3726,11 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,70 +3791,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1095200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1095100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1095500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1095200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1247700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1395200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>695000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>644800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>544600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>344400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>439300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>344100</v>
-      </c>
-      <c r="O61" s="3">
-        <v>343900</v>
       </c>
       <c r="P61" s="3">
         <v>343900</v>
       </c>
       <c r="Q61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="R61" s="3">
         <v>364000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>383900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>383700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>383300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>382700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22104300</v>
+      </c>
+      <c r="E66" s="3">
         <v>22893700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22890300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22702000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22269700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>20482700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19405400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19324400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18967500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19123000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18617700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18432900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18606500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18512800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17814900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17433800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16804500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16278900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16098500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2173100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2059400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1946900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1862000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1788300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1773000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1870000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1801400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1728500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1647600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1565200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1477200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1428700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1339000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1250300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1124500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1051500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>982300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>914400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4501700</v>
+      </c>
+      <c r="E76" s="3">
         <v>4383200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4272300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4186300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4110700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4083200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4150400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4078300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3993200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3882600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3770300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3653600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3613900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3526600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3460700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3334700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3260100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2873300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2791600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E81" s="3">
         <v>148400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>109300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>50300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>103900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>110500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>110700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>115000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>114800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>113100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>146200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>96000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>90500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>89200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>87800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,34 +5018,35 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>8800</v>
       </c>
       <c r="L83" s="3">
         <v>8800</v>
@@ -4859,31 +5058,34 @@
         <v>8800</v>
       </c>
       <c r="O83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8600</v>
-      </c>
-      <c r="R83" s="3">
-        <v>8500</v>
       </c>
       <c r="S83" s="3">
         <v>8500</v>
       </c>
       <c r="T83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="U83" s="3">
         <v>8400</v>
       </c>
       <c r="V83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="W83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>104600</v>
+      </c>
+      <c r="E89" s="3">
         <v>158300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>157400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>152800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>92700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>124900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>67500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>139500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>348100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>133000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>101500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>122800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>95800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>87900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>58700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>142000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>81700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-16800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-273600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-256100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>84900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-223000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>321900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-157900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>197800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-241100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-597300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-102800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-218200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-608200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-416500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-958200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-214600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-614600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-35900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-35600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-35200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-34900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-33500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-32200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-31000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-28300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-27000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-25700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-24400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-23700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-21300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-20700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-623100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-79500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>217200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>371500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1737300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>992100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>51300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>324300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-134400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>418700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>152200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-227800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>69200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>677900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>328400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>561800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>794700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>134900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>429700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-792100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-177300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>459600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>288000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>298300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-148000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>465800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>291400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>130900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>317000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-97100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-197600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-47500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>192500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-616900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>233300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-104700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>62400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-103200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>264100</v>
+        <v>262700</v>
       </c>
       <c r="E8" s="3">
         <v>264100</v>
       </c>
       <c r="F8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="G8" s="3">
         <v>273400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>268300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>267100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>272000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>281000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>289500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>296800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>295200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>292100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>277600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>273700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>257500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>249100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>241600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>228200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>213800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>215500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,40 +1192,43 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E15" s="3">
         <v>-3200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-1700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-1800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-1900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-2600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-2900</v>
       </c>
       <c r="K15" s="3">
         <v>-2900</v>
       </c>
       <c r="L15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-3100</v>
       </c>
       <c r="N15" s="3">
         <v>-3100</v>
@@ -1232,13 +1255,16 @@
         <v>-3100</v>
       </c>
       <c r="V15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="W15" s="3">
         <v>-3200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E17" s="3">
         <v>23400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>35800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>43600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>50500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>62200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>70900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>78600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>76000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>71000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>98900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>58600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>45300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>43500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>39600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>32200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>27900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>30600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E18" s="3">
         <v>240700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>234700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>237600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>224700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>216600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>209800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>210100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>210900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>217700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>219200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>221100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>178700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>215100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>212200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>205600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>202000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>196000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>185900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>184900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-45000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-42400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-81500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-86200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-151400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-193400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-74000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-74500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-72500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-72600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-78800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-65100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-56000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-51700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-52000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-49200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-47800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E21" s="3">
         <v>204500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>201200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>165300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>147600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>74200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>25200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>144900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>145200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>154000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>155400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>162600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>108600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>162200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>156100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>158200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>158800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>152500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>145000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>145500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E23" s="3">
         <v>195700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>192300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>156100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>138500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>65200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>16400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>136000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>145200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>146600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>153800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>99800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>153300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>147100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>149600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>150300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>144000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>136600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>137200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E24" s="3">
         <v>45200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>43800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>35600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>29300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>32600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>34700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>25700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-46400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>53500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>47400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>49300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E26" s="3">
         <v>150500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>148400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>120500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>109200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>50300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>110500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>115000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>74200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>114700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>113100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>196000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>96000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>90500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>89200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>87800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E27" s="3">
         <v>150500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>148400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>120500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>109300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>50300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>110500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>110700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>115000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>74200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>113100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>196000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>96000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>90500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>89200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>87800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2046,12 +2107,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-49800</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E32" s="3">
         <v>45000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>42400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>81500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>86200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>151400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>193400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>74000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>74500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>72500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>72600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>78800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>65100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>56000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>51700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>52000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>49200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>47800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E33" s="3">
         <v>150500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>148400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>120500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>109300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>50300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>103900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>110500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>110700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>115000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>114800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>113100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>146200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>96000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>90500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>89200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>87800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E35" s="3">
         <v>150500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>148400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>120500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>109300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>50300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>103900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>110500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>110700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>115000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>114800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>113100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>146200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>96000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>90500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>89200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>87800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1782500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1424200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2216300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2393700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1934100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1646100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1347700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1495800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1029900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>738600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>607700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>290700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>387800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>585400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>632900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>440400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>827800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>790900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>892100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>814300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2686,26 +2776,29 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S42" s="3">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>229500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>33200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>36700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>52100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2899,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3134,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>699400</v>
+      </c>
+      <c r="E48" s="3">
         <v>729200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>729400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>738800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>739100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>732700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>723400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>711500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>687500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>662100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>647000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>567200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>538500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>541000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>532300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>519800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>517600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>516500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>506500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>504100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>670600</v>
+      </c>
+      <c r="E49" s="3">
         <v>672100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>673700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>675500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>677300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>679200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>681700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>684500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>687400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>690300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>693300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>696500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>699600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>702800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>705900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>709000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>712200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>715300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>718500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>721000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26143400</v>
+      </c>
+      <c r="E54" s="3">
         <v>26605900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27276900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27162600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26888300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26380400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24565800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23555700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23402700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22960700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23005700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22388000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22086500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22220400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22039400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21275600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20768500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20064600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>19152200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18890100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>198700</v>
+      </c>
+      <c r="E57" s="3">
         <v>231900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>418900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>179200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>172800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>152500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>128200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>221800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>224200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>222700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>273100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>216400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>211000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>182600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>183200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>186200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>153300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>107800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>98300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>72600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3675,21 +3812,21 @@
       <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>72700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>70100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3705,8 +3842,8 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3794,73 +3934,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1095200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1095100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1095500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1095200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1247700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1395200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>695000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>644800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>544600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>344400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>439300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>344100</v>
-      </c>
-      <c r="P61" s="3">
-        <v>343900</v>
       </c>
       <c r="Q61" s="3">
         <v>343900</v>
       </c>
       <c r="R61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="S61" s="3">
         <v>364000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>383900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>383700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>383300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>382700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21590100</v>
+      </c>
+      <c r="E66" s="3">
         <v>22104300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22893700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22890300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22702000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22269700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>20482700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19405400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19324400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18967500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19123000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18617700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18432900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18606500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18512800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17814900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17433800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16804500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16278900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16098500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2266200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2173100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2059400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1946900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1862000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1788300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1773000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1870000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1801400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1728500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1647600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1565200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1477200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1428700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1339000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1250300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1124500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1051500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>982300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>914400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4553200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4501700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4383200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4272300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4186300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4110700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4083200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4150400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4078300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3993200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3882600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3770300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3653600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3613900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3526600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3460700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3334700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3260100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2873300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2791600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>130300</v>
+      </c>
+      <c r="E81" s="3">
         <v>150500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>148400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>120500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>109300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>50300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>103900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>110500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>110700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>115000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>114800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>113100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>146200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>96000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>90500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>89200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>87800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,37 +5217,38 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E83" s="3">
         <v>8800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>9200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>8800</v>
       </c>
       <c r="M83" s="3">
         <v>8800</v>
@@ -5061,31 +5260,34 @@
         <v>8800</v>
       </c>
       <c r="P83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8600</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8500</v>
       </c>
       <c r="T83" s="3">
         <v>8500</v>
       </c>
       <c r="U83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="V83" s="3">
         <v>8400</v>
       </c>
       <c r="W83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="X83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E89" s="3">
         <v>104600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>158300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>157400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>139500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>152800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>102300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>92700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>124900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>67500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>348100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>133000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>101500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>122800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>95800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>87900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>58700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>142000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>81700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-16800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>802200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-273600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-256100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>84900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-223000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>321900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-157900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>197800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-241100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-597300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-102800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-218200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-608200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-416500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-958200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-214600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-614600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-36300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-35900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-35600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-35200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-34900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-33500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-32200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-31000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-29600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-28300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-27000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-25700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-24400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-23700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-21300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-20700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-20000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-557100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-623100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-79500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>217200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>371500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1737300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>992100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>51300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>324300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-134400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>418700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>152200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-227800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>69200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>677900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>328400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>561800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>794700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>134900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>429700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>358300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-792100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-177300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>459600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>288000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>298300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-148000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>465800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>291400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>130900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>317000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-97100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-197600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-47500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>192500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-616900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>233300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-104700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>62400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-103200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>280500</v>
+      </c>
+      <c r="E8" s="3">
         <v>262700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>264100</v>
       </c>
       <c r="F8" s="3">
         <v>264100</v>
       </c>
       <c r="G8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="H8" s="3">
         <v>273400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>268300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>267100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>272000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>281000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>289500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>296800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>295200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>292100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>277600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>273700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>257500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>249100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>241600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>228200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>213800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>215500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,34 +1226,34 @@
         <v>-1500</v>
       </c>
       <c r="E15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F15" s="3">
         <v>-3200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-1700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-1800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-1900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-2600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-2900</v>
       </c>
       <c r="L15" s="3">
         <v>-2900</v>
       </c>
       <c r="M15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-3100</v>
       </c>
       <c r="O15" s="3">
         <v>-3100</v>
@@ -1258,13 +1280,16 @@
         <v>-3100</v>
       </c>
       <c r="W15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="X15" s="3">
         <v>-3200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E17" s="3">
         <v>14700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>35800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>43600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>50500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>62200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>70900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>78600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>79100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>76000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>71000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>58600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>45300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>43500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>39600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>32200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>27900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>30600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>266400</v>
+      </c>
+      <c r="E18" s="3">
         <v>248000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>240700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>234700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>237600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>224700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>216600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>209800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>210100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>210900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>217700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>219200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>221100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>178700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>215100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>212200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>205600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>202000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>196000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>185900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>184900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-77000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-45000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-81500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-86200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-151400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-193400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-74000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-74500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-72500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-72600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-78800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-61800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-65100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-56000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-51700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-52000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-49200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-47800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>203200</v>
+      </c>
+      <c r="E21" s="3">
         <v>179900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>201200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>165300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>147600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>74200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>25200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>144900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>145200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>154000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>155400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>162600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>108600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>162200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>156100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>158200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>158800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>152500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>145000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>145500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>194000</v>
+      </c>
+      <c r="E23" s="3">
         <v>171000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>195700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>192300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>156100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>138500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>65200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>16400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>136000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>145200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>146600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>153800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>99800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>153300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>147100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>149600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>150300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>144000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>136600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>137200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E24" s="3">
         <v>40700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>45200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>43800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>35600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>32600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>35900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>25700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-46400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>53500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>47400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>49300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E26" s="3">
         <v>130300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>150500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>148400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>120500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>109200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>103900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>115000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>74200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>114700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>113100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>196000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>96000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>90500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>89200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>87800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E27" s="3">
         <v>130300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>150500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>148400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>120500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>109300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>50300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>110500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>115000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>74200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>114800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>113100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>196000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>96000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>90500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>89200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>87800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2152,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2110,12 +2170,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>-49800</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E32" s="3">
         <v>77000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>45000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>81500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>86200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>151400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>193400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>74000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>74500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>72500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>72600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>78800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>61800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>65100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>56000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>51700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>52000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>49200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>47800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E33" s="3">
         <v>130300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>150500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>148400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>120500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>109300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>50300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>103900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>110500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>110700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>115000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>74200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>114800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>113100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>146200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>96000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>90500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>89200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>87800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E35" s="3">
         <v>130300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>150500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>148400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>120500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>109300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>50300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>103900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>110500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>110700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>115000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>74200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>114800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>113100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>146200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>96000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>90500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>89200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>87800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,99 +2746,103 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2053800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1782500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1424200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2216300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2393700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1934100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1646100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1347700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1495800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1029900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>738600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>607700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>290700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>387800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>585400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>632900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>440400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>827800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>790900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>892100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>814300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>15000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2779,26 +2868,29 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>229500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>33200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>36700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>52100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3241,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>695900</v>
+      </c>
+      <c r="E48" s="3">
         <v>699400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>729200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>729400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>738800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>739100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>732700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>723400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>711500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>687500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>662100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>647000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>567200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>538500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>541000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>532300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>519800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>517600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>516500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>506500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>504100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>669100</v>
+      </c>
+      <c r="E49" s="3">
         <v>670600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>672100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>673700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>675500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>677300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>679200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>681700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>684500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>687400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>690300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>693300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>696500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>699600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>702800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>705900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>709000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>712200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>715300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>718500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>721000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26530400</v>
+      </c>
+      <c r="E54" s="3">
         <v>26143400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26605900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27276900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27162600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26888300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26380400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24565800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>23555700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23402700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22960700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23005700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22388000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22086500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22220400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22039400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21275600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20768500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20064600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19152200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18890100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>186800</v>
+      </c>
+      <c r="E57" s="3">
         <v>198700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>231900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>418900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>179200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>172800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>152500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>128200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>221800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>224200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>222700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>273100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>216400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>211000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>182600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>183200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>186200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>153300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>107800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>98300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>72600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3815,21 +3951,21 @@
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>72700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>70100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3845,8 +3981,8 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,76 +4076,82 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1217400</v>
+      </c>
+      <c r="E61" s="3">
         <v>1217000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1095200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1095100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1095500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1095200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1247700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1395200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>695000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>644800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>544600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>344400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>439300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>344100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>343900</v>
       </c>
       <c r="R61" s="3">
         <v>343900</v>
       </c>
       <c r="S61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="T61" s="3">
         <v>364000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>383900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>383700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>383300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>382700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21694200</v>
+      </c>
+      <c r="E66" s="3">
         <v>21590100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22104300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22893700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22890300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22702000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22269700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20482700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19405400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19324400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18967500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19123000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18617700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18432900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18606500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18512800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17814900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17433800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16804500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16278900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16098500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,13 +4671,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2378500</v>
+      </c>
+      <c r="E72" s="3">
         <v>2266200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2173100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2059400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1946900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1862000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1788300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1773000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1870000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1801400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1728500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1647600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1565200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1477200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1428700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1339000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1250300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1124500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1051500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>982300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>914400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4497300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4553200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4501700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4383200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4272300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4186300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4110700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4083200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4150400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4078300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3993200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3882600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3770300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3653600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3613900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3526600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3460700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3334700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3260100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2873300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2791600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>149800</v>
+      </c>
+      <c r="E81" s="3">
         <v>130300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>150500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>148400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>120500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>109300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>50300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>103900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>110500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>110700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>115000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>74200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>114800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>113100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>146200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>96000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>90500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>89200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>87800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,40 +5415,41 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E83" s="3">
         <v>8900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>8800</v>
       </c>
       <c r="N83" s="3">
         <v>8800</v>
@@ -5263,31 +5461,34 @@
         <v>8800</v>
       </c>
       <c r="Q83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8600</v>
-      </c>
-      <c r="T83" s="3">
-        <v>8500</v>
       </c>
       <c r="U83" s="3">
         <v>8500</v>
       </c>
       <c r="V83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="W83" s="3">
         <v>8400</v>
       </c>
       <c r="X83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="Y83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>166700</v>
+      </c>
+      <c r="E89" s="3">
         <v>113100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>104600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>158300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>157400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>139500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>152800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>102300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>92700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>67500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>139500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>348100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>133000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>101500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>122800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>95800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>87900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>58700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>142000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>81700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-16800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-19900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-7500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-10700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-146800</v>
+      </c>
+      <c r="E94" s="3">
         <v>802200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-273600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-256100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>84900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-223000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>321900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-157900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>197800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-241100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-597300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-102800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-218200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-608200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-416500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-958200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-214600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-614600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6250,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-37000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-36300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-35900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-35600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-35200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-34900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-33500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-32200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-31000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-29600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-28300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-27000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-25700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-24400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-23700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-21300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-20700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-20000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>251400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-557100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-623100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-79500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>217200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>371500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1737300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>992100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>51300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>324300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-134400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>418700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>152200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-227800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>69200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>677900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>328400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>561800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>794700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>134900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>429700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>271300</v>
+      </c>
+      <c r="E102" s="3">
         <v>358300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-792100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-177300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>459600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>288000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>298300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-148000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>465800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>291400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>130900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>317000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-97100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-197600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-47500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>192500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-616900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>233300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-104700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>62400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-103200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,185 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>262400</v>
+      </c>
+      <c r="E8" s="3">
         <v>280500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>262700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>264100</v>
       </c>
       <c r="G8" s="3">
         <v>264100</v>
       </c>
       <c r="H8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="I8" s="3">
         <v>273400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>268300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>267100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>272000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>281000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>289500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>296800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>295200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>292100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>277600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>273700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>257500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>249100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>241600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>228200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>213800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>215500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,34 +1252,34 @@
         <v>-1500</v>
       </c>
       <c r="F15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G15" s="3">
         <v>-3200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-1700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-1800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-1900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-2900</v>
       </c>
       <c r="M15" s="3">
         <v>-2900</v>
       </c>
       <c r="N15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-3100</v>
       </c>
       <c r="P15" s="3">
         <v>-3100</v>
@@ -1283,13 +1306,16 @@
         <v>-3100</v>
       </c>
       <c r="X15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E17" s="3">
         <v>14100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>35800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>43600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>50500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>70900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>78600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>79100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>76000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>71000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>58600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>45300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>43500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>39600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>32200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>27900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>30600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>249400</v>
+      </c>
+      <c r="E18" s="3">
         <v>266400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>248000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>240700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>234700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>237600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>224700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>216600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>209800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>210100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>210900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>217700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>219200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>221100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>178700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>215100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>212200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>205600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>202000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>196000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>185900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>184900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-80500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-72400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-77000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-45000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-42400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-81500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-86200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-151400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-193400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-74000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-74500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-72500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-72600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-67400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-78800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-61800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-65100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-56000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-51700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-52000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-49200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-47800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>178300</v>
+      </c>
+      <c r="E21" s="3">
         <v>203200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>179900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>204500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>201200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>165300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>147600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>74200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>144900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>145200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>154000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>155400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>162600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>162200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>156100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>158200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>152500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>145000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>145500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>168900</v>
+      </c>
+      <c r="E23" s="3">
         <v>194000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>171000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>195700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>192300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>156100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>138500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>65200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>16400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>136000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>145200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>146600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>153800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>99800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>153300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>147100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>149600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>150300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>144000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>136600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>137200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E24" s="3">
         <v>44200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>45200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>35600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>29300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>32600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>35900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>25700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-46400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>54200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>53500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>47400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>49300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>132500</v>
+      </c>
+      <c r="E26" s="3">
         <v>149800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>130300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>150500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>148400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>120500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>109200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>110700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>115000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>114700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>113100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>196000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>96000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>90500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>89200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>87800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E27" s="3">
         <v>149800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>130300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>150500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>148400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>120500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>109300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>50300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>103900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>110500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>110700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>115000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>74200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>114800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>113100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>196000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>96000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>90500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>89200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>87800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,17 +2216,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
@@ -2173,12 +2234,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-49800</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E32" s="3">
         <v>72400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>77000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>45000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>42400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>81500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>86200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>151400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>193400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>74000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>74500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>72500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>72600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>67400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>78800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>61800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>65100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>56000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>51700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>52000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>49200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>47800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E33" s="3">
         <v>149800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>130300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>150500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>148400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>120500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>109300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>50300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>103900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>110500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>110700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>115000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>74200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>114800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>113100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>146200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>96000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>90500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>89200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>87800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E35" s="3">
         <v>149800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>130300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>150500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>148400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>120500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>109300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>50300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>103900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>110500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>110700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>115000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>74200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>114800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>113100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>146200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>96000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>90500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>89200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>87800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,88 +2833,92 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1605800</v>
+      </c>
+      <c r="E41" s="3">
         <v>2053800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1782500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1424200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2216300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2393700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1934100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1646100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1347700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1495800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1029900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>738600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>607700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>290700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>387800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>585400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>632900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>440400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>827800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>790900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>892100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>814300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3">
         <v>15000</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2844,8 +2934,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2871,26 +2961,29 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>229500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>33200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>36700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>52100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,150 +3349,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>693700</v>
+      </c>
+      <c r="E48" s="3">
         <v>695900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>699400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>729200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>729400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>738800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>739100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>732700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>723400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>711500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>687500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>662100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>647000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>567200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>538500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>541000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>532300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>519800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>517600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>516500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>506500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>504100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>667500</v>
+      </c>
+      <c r="E49" s="3">
         <v>669100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>670600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>672100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>673700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>675500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>677300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>679200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>681700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>684500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>687400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>690300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>693300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>696500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>699600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>702800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>705900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>709000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>712200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>715300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>718500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>721000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26562400</v>
+      </c>
+      <c r="E54" s="3">
         <v>26530400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26143400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26605900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27276900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27162600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26888300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26380400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24565800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23555700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23402700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22960700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23005700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22388000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22086500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22220400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22039400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21275600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20768500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20064600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19152200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18890100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,79 +3925,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E57" s="3">
         <v>186800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>198700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>231900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>418900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>179200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>172800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>152500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>128200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>221800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>224200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>222700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>273100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>216400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>211000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>182600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>183200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>186200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>153300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>107800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>98300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>72600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3954,21 +4091,21 @@
       <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>72700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>70100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3984,8 +4121,8 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,79 +4219,85 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1223900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1217400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1217000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1095200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1095100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1095500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1095200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1247700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1395200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>695000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>644800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>544600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>344400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>439300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>344100</v>
-      </c>
-      <c r="R61" s="3">
-        <v>343900</v>
       </c>
       <c r="S61" s="3">
         <v>343900</v>
       </c>
       <c r="T61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="U61" s="3">
         <v>364000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>383900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>383700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>383300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>382700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21872300</v>
+      </c>
+      <c r="E66" s="3">
         <v>21694200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21590100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22104300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22893700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22890300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22702000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22269700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20482700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19405400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19324400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18967500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19123000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18617700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18432900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18606500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18512800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17814900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17433800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16804500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16278900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16098500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4683,7 +4851,7 @@
         <v>339000</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2468700</v>
+      </c>
+      <c r="E72" s="3">
         <v>2378500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2266200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2173100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2059400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1946900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1862000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1788300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1773000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1870000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1801400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1728500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1647600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1565200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1477200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1428700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1339000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1250300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1124500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1051500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>982300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>914400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4351100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4497300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4553200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4501700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4383200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4272300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4186300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4110700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4083200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4150400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4078300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3993200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3882600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3770300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3653600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3613900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3526600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3460700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3334700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3260100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>2873300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2791600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E81" s="3">
         <v>149800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>130300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>150500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>148400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>120500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>109300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>50300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>103900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>110500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>110700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>115000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>74200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>114800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>113100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>146200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>96000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>90500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>89200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>87800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,43 +5614,44 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E83" s="3">
         <v>9200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8700</v>
-      </c>
-      <c r="N83" s="3">
-        <v>8800</v>
       </c>
       <c r="O83" s="3">
         <v>8800</v>
@@ -5464,31 +5663,34 @@
         <v>8800</v>
       </c>
       <c r="R83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8600</v>
-      </c>
-      <c r="U83" s="3">
-        <v>8500</v>
       </c>
       <c r="V83" s="3">
         <v>8500</v>
       </c>
       <c r="W83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="X83" s="3">
         <v>8400</v>
       </c>
       <c r="Y83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="Z83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E89" s="3">
         <v>166700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>113100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>104600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>158300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>157400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>139500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>152800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>102300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>92700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>124900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>67500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>139500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>348100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>133000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>101500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>122800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>95800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>87900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>58700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>142000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>81700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-27600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-19900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-7500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-593800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-146800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>802200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-273600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-256100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>84900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-223000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>321900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-157900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>197800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-241100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-597300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-102800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-218200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-608200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-416500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-958200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-214600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-614600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-37300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-37000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-36300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-35900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-35600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-34900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-33500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-32200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-31000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-29600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-28300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-27000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-25700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-24400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-23700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-21300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-20700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="E100" s="3">
         <v>251400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-557100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-623100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-79500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>217200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>371500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1737300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>992100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>51300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>324300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-134400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>418700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>152200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-227800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>69200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>677900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>328400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>561800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>794700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>134900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>429700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-448000</v>
+      </c>
+      <c r="E102" s="3">
         <v>271300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>358300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-792100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-177300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>459600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>288000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>298300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-148000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>465800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>291400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>130900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>317000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-97100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-197600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-47500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>192500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-616900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>233300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-104700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>62400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-103200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,185 +665,192 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>281500</v>
+      </c>
+      <c r="E8" s="3">
         <v>262400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>280500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>262700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>264100</v>
       </c>
       <c r="H8" s="3">
         <v>264100</v>
       </c>
       <c r="I8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="J8" s="3">
         <v>273400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>268300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>267100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>272000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>281000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>289500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>296800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>295200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>292100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>277600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>273700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>257500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>249100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>241600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>228200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>213800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>215500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1255,34 +1278,34 @@
         <v>-1500</v>
       </c>
       <c r="G15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="H15" s="3">
         <v>-3200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>-1700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>-1800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-2600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-2900</v>
       </c>
       <c r="N15" s="3">
         <v>-2900</v>
       </c>
       <c r="O15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-3100</v>
       </c>
       <c r="Q15" s="3">
         <v>-3100</v>
@@ -1309,13 +1332,16 @@
         <v>-3100</v>
       </c>
       <c r="Y15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E17" s="3">
         <v>13000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>29400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>35800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>43600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>70900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>78600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>79100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>76000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>71000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>58600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>45300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>43500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>39600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>32200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>27900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>30600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>265800</v>
+      </c>
+      <c r="E18" s="3">
         <v>249400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>266400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>248000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>240700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>234700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>237600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>224700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>216600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>209800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>210100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>210900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>217700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>219200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>221100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>178700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>215100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>212200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>205600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>202000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>196000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>185900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>184900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-80500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-72400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-77000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-45000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-42400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-81500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-86200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-151400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-193400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-74000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-74500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-72500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-72600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-78800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-61800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-65100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-56000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-51700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-52000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-49200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-47800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>185100</v>
+      </c>
+      <c r="E21" s="3">
         <v>178300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>203200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>179900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>204500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>201200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>165300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>147600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>74200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>144900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>145200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>154000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>155400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>162600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>162200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>156100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>158800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>152500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>145000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>145500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>175800</v>
+      </c>
+      <c r="E23" s="3">
         <v>168900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>194000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>171000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>195700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>192300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>156100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>138500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>65200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>16400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>145200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>146600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>153800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>99800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>153300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>147100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>149600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>150300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>144000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>136600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>137200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39400</v>
+      </c>
+      <c r="E24" s="3">
         <v>36400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>43800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>35600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>29300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>34700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>25700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>38600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-46400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>54200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>53500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>47400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>49300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>136400</v>
+      </c>
+      <c r="E26" s="3">
         <v>132500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>149800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>130300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>150500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>148400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>120500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>109200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>50300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>110500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>110700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>115000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>74200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>114700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>113100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>196000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>96000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>90500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>89200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>87800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E27" s="3">
         <v>128000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>149800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>130300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>150500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>148400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>120500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>109300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>50300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>103900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>110500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>110700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>115000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>74200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>113100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>196000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>96000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>90500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>89200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>87800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,17 +2280,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2237,12 +2298,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-49800</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E32" s="3">
         <v>80500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>72400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>77000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>45000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>42400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>81500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>86200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>151400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>193400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>74000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>74500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>72500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>72600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>78800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>61800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>65100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>56000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>51700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>52000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>49200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>47800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E33" s="3">
         <v>128000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>149800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>130300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>150500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>148400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>120500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>109300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>50300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>103900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>110500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>110700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>115000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>74200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>114800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>113100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>146200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>96000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>90500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>89200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>87800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E35" s="3">
         <v>128000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>149800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>130300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>150500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>148400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>120500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>109300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>50300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>103900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>110500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>110700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>115000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>74200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>114800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>113100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>146200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>96000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>90500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>89200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>87800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,94 +2920,98 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1140400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1605800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2053800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1782500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1424200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2216300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2393700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1934100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1646100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1347700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1495800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1029900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>738600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>607700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>290700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>387800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>585400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>632900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>440400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>827800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>790900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>892100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>814300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>15000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2937,8 +3027,8 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2964,26 +3054,29 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3">
         <v>229500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>33200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>36700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>52100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3204,8 +3303,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3278,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,156 +3457,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>687100</v>
+      </c>
+      <c r="E48" s="3">
         <v>693700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>695900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>699400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>729200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>729400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>738800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>739100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>732700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>723400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>711500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>687500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>662100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>647000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>567200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>538500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>541000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>532300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>519800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>517600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>516500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>506500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>504100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>666000</v>
+      </c>
+      <c r="E49" s="3">
         <v>667500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>669100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>670600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>672100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>673700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>675500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>677300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>679200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>681700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>684500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>687400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>690300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>693300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>696500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>699600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>702800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>705900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>709000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>712200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>715300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>718500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>721000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25920000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26562400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26530400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26143400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26605900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27276900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27162600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26888300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26380400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24565800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>23555700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>23402700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22960700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23005700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22388000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22086500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22220400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22039400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21275600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20768500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20064600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>19152200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>18890100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>243700</v>
+      </c>
+      <c r="E57" s="3">
         <v>226300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>186800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>198700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>231900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>418900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>179200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>172800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>152500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>128200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>221800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>224200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>222700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>273100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>216400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>211000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>182600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>183200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>186200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>153300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>107800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>98300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>72600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4074,8 +4208,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4094,21 +4231,21 @@
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>72700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>70100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4124,8 +4261,8 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4148,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4222,82 +4362,88 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>973100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1223900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1217400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1217000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1095200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1095100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1095500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1095200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1247700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1395200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>695000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>644800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>544600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>344400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>439300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>344100</v>
-      </c>
-      <c r="S61" s="3">
-        <v>343900</v>
       </c>
       <c r="T61" s="3">
         <v>343900</v>
       </c>
       <c r="U61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="V61" s="3">
         <v>364000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>383900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>383700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>383300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>382700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21313200</v>
+      </c>
+      <c r="E66" s="3">
         <v>21872300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21694200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21590100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22104300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22893700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22890300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22702000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22269700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20482700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19405400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19324400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18967500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19123000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18617700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18432900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18606500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18512800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17814900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>17433800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16804500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16278900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16098500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4854,7 +5022,7 @@
         <v>339000</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2563100</v>
+      </c>
+      <c r="E72" s="3">
         <v>2468700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2378500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2266200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2173100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2059400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1946900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1862000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1788300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1773000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1870000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1801400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1728500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1647600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1565200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1477200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1428700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1339000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1250300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1124500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1051500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>982300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>914400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4267800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4351100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4497300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4553200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4501700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4383200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4272300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4186300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4110700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4083200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4150400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4078300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3993200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3882600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3770300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3653600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3613900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3526600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3460700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3334700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3260100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2873300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2791600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>132400</v>
+      </c>
+      <c r="E81" s="3">
         <v>128000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>149800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>130300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>150500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>148400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>120500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>109300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>50300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>103900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>110500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>110700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>115000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>74200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>114800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>113100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>146200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>96000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>90500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>89200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>87800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,46 +5813,47 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E83" s="3">
         <v>9400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>9200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8800</v>
       </c>
       <c r="P83" s="3">
         <v>8800</v>
@@ -5666,31 +5865,34 @@
         <v>8800</v>
       </c>
       <c r="S83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="T83" s="3">
         <v>8900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8600</v>
-      </c>
-      <c r="V83" s="3">
-        <v>8500</v>
       </c>
       <c r="W83" s="3">
         <v>8500</v>
       </c>
       <c r="X83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="Y83" s="3">
         <v>8400</v>
       </c>
       <c r="Z83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="AA83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>163300</v>
+      </c>
+      <c r="E89" s="3">
         <v>175600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>166700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>113100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>104600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>158300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>157400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>139500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>152800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>92700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>124900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>67500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>139500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>348100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>133000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>101500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>122800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>95800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>87900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>58700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>142000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>81700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-27500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-27600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-19900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>156500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-593800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-146800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>802200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-273600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-256100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>84900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-223000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>321900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-157900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>197800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-241100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-597300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-102800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-218200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-608200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-416500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-958200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-214600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-614600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-37600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-37300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-37000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-36300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-35900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-35600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-35200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-34900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-33500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-32200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-31000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-29600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-27000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-25700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-25100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-24400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-23700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-23100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-21300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-785200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-29800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>251400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-557100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-623100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-79500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>217200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>371500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1737300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>992100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>51300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>324300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-134400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>418700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>152200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-227800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>69200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>677900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>328400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>561800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>794700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>134900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>429700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-465400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-448000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>271300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>358300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-792100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-177300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>459600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>288000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>298300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-148000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>465800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>291400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>130900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>317000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-97100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-197600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-47500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>192500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-616900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>233300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-104700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>62400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-103200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,205 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>398900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>323300</v>
+      </c>
+      <c r="F8" s="3">
         <v>281500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>262400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>280500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>262700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>264100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>264100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>273400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>268300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>267100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>272000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>281000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>289500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>296800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>295200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>292100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>277600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>273700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>257500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>249100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>241600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>228200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>213800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>215500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1219,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,16 +1302,22 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1500</v>
+        <v>-1200</v>
       </c>
       <c r="E15" s="3">
-        <v>-1500</v>
+        <v>-1300</v>
       </c>
       <c r="F15" s="3">
         <v>-1500</v>
@@ -1281,37 +1326,37 @@
         <v>-1500</v>
       </c>
       <c r="H15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J15" s="3">
         <v>-3200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>-1700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-1800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-1900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>-2600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>-2800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>-2900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>-2900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-3100</v>
       </c>
       <c r="S15" s="3">
         <v>-3100</v>
@@ -1335,13 +1380,19 @@
         <v>-3100</v>
       </c>
       <c r="Z15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AB15" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F17" s="3">
         <v>15700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>13000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>14100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>14700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>23400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>29400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>35800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>43600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>50500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>62200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>70900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>78600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>79100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>76000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>71000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>98900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>58600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>45300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>43500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>39600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>32200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>27900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>30600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>332500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>294600</v>
+      </c>
+      <c r="F18" s="3">
         <v>265800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>249400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>266400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>248000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>240700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>234700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>237600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>224700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>216600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>209800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>210100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>210900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>217700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>219200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>221100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>178700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>215100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>212200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>205600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>202000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>196000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>185900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>184900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1614,176 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-126300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-90000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-80500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-72400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-77000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-45000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-42400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-81500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-86200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-151400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-193400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-74000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-74500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-72500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-72600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-67400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-78800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-61800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-65100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-56000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-51700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-52000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-49200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-47800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>217600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>177500</v>
+      </c>
+      <c r="F21" s="3">
         <v>185100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>178300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>203200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>179900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>204500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>201200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>165300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>147600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>74200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>25200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>144900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>145200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>154000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>155400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>162600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>108600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>162200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>156100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>158200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>158800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>152500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>145000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>145500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>168300</v>
+      </c>
+      <c r="F23" s="3">
         <v>175800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>168900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>194000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>171000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>195700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>192300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>156100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>138500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>65200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>16400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>136000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>136500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>145200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>146600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>153800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>99800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>153300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>147100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>149600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>150300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>144000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>136600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>137200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>36000</v>
+      </c>
+      <c r="F24" s="3">
         <v>39400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>36400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>44200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>40700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>45200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>43800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>35600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>29300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>14900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>35200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>32600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>34700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>35900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>38800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>25700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>38600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>34000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-46400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>54200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>53500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>47400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>49300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>162800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>132300</v>
+      </c>
+      <c r="F26" s="3">
         <v>136400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>132500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>149800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>130300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>150500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>148400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>120500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>109200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>50300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>11900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>100800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>103900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>110500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>110700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>115000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>74200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>114700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>113100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>196000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>96000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>90500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>89200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>87800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>128300</v>
+      </c>
+      <c r="F27" s="3">
         <v>132400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>128000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>149800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>130300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>150500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>148400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>120500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>109300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>50300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>100800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>103900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>110500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>110700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>115000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>74200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>114800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>113100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>196000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>96000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>90500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>89200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>87800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,33 +2404,33 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>-49800</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>126300</v>
+      </c>
+      <c r="F32" s="3">
         <v>90000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>80500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>72400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>77000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>45000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>42400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>81500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>86200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>151400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>193400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>74000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>74500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>72500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>72600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>67400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>78800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>61800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>65100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>56000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>51700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>52000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>49200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>47800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>128300</v>
+      </c>
+      <c r="F33" s="3">
         <v>132400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>128000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>149800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>130300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>150500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>148400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>120500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>109300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>50300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>11900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>100800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>103900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>110500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>110700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>115000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>74200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>114800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>113100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>146200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>96000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>90500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>89200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>87800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>128300</v>
+      </c>
+      <c r="F35" s="3">
         <v>132400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>128000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>149800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>130300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>150500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>148400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>120500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>109300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>50300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>11900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>100800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>103900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>110500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>110700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>115000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>74200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>114800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>113100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>146200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>96000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>90500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>89200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>87800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,103 +3092,111 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1033500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>895800</v>
+      </c>
+      <c r="F41" s="3">
         <v>1140400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1605800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2053800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1782500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1424200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2216300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2393700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1934100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1646100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1347700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1495800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1029900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>738600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>607700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>290700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>387800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>585400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>632900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>440400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>827800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>790900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>892100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>814300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F42" s="3">
         <v>4100</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
         <v>15000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3030,11 +3209,11 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3057,26 +3236,32 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
+      <c r="V42" s="3">
+        <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>229500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>33200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>36700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>52100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3152,8 +3337,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3420,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3306,8 +3503,14 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3383,8 +3586,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3669,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>678400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>684900</v>
+      </c>
+      <c r="F48" s="3">
         <v>687100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>693700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>695900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>699400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>729200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>729400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>738800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>739100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>732700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>723400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>711500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>687500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>662100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>647000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>567200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>538500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>541000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>532300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>519800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>517600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>516500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>506500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>504100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>663500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>664700</v>
+      </c>
+      <c r="F49" s="3">
         <v>666000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>667500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>669100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>670600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>672100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>673700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>675500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>677300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>679200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>681700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>684500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>687400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>690300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>693300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>696500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>699600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>702800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>705900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>709000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>712200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>715300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>718500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>721000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27656600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>26232100</v>
+      </c>
+      <c r="F54" s="3">
         <v>25920000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>26562400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>26530400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>26143400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>26605900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>27276900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>27162600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>26888300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26380400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>24565800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>23555700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>23402700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>22960700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>23005700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>22388000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>22086500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>22220400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>22039400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>21275600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>20768500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>20064600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>19152200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>18890100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4316,93 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>227500</v>
+      </c>
+      <c r="F57" s="3">
         <v>243700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>226300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>186800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>198700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>231900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>418900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>179200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>172800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>152500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>128200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>221800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>224200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>222700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>273100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>216400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>211000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>182600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>183200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>186200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>153300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>107800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>98300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>72600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,47 +4478,53 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>72700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>70100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>65200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>65500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4264,11 +4537,11 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4288,8 +4561,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4365,85 +4644,97 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1075200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>924700</v>
+      </c>
+      <c r="F61" s="3">
         <v>973100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1223900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1217400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1217000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1095200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1095100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1095500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1095200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1247700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1395200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>695000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>644800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>544600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>344400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>439300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>344100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>343900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>343900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>364000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>383900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>383700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>383300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>382700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22967000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21692700</v>
+      </c>
+      <c r="F66" s="3">
         <v>21313200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>21872300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21694200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21590100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>22104300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>22893700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>22890300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22702000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22269700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20482700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19405400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>19324400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18967500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19123000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>18617700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>18432900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>18606500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>18512800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>17814900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>17433800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>16804500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>16278900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>16098500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5025,10 +5360,10 @@
         <v>339000</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2773100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2653400</v>
+      </c>
+      <c r="F72" s="3">
         <v>2563100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2468700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2378500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2266200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2173100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>2059400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1946900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1862000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1788300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1773000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1870000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1801400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1728500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1647600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1565200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1477200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1428700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1339000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1250300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1124500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1051500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>982300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>914400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4350600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4200400</v>
+      </c>
+      <c r="F76" s="3">
         <v>4267800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4351100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4497300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4553200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4501700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4383200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4272300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4186300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4110700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4083200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4150400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4078300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3993200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3882600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3770300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3653600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3613900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3526600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3460700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3334700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3260100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>2873300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2791600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>128300</v>
+      </c>
+      <c r="F81" s="3">
         <v>132400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>128000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>149800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>130300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>150500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>148400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>120500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>109300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>50300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>11900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>100800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>103900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>110500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>110700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>115000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>74200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>114800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>113100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>146200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>96000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>90500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>89200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>87800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,52 +6209,54 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F83" s="3">
         <v>9300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>9400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>8800</v>
       </c>
       <c r="I83" s="3">
         <v>8900</v>
       </c>
       <c r="J83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K83" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L83" s="3">
         <v>9200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>9100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8900</v>
-      </c>
-      <c r="N83" s="3">
-        <v>8800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8700</v>
       </c>
       <c r="P83" s="3">
         <v>8800</v>
       </c>
       <c r="Q83" s="3">
-        <v>8800</v>
+        <v>8700</v>
       </c>
       <c r="R83" s="3">
         <v>8800</v>
@@ -5868,31 +6265,37 @@
         <v>8800</v>
       </c>
       <c r="T83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="U83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="V83" s="3">
         <v>8900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>9000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>8600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>8500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>8500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>8400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>8400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>252600</v>
+      </c>
+      <c r="F89" s="3">
         <v>163300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>175600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>166700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>113100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>104600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>158300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>157400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>139500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>152800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>102300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>92700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>124900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>67500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>139500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>348100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>133000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>101500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>122800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>95800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>87900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>58700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>142000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>81700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-9100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-10400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-15600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-16800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-20300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-27500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-23300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-27600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-34600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-19900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-14300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-18100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-7500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-8200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1216500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-776500</v>
+      </c>
+      <c r="F94" s="3">
         <v>156500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-593800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-146800</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-132300</v>
+      </c>
+      <c r="I94" s="3">
         <v>802200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-273600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-256100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>84900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-223000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>321900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-157900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>197800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-241100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-597300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-102800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-218200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-608200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-416500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-958200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-214600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-614600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7184,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-37700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-37600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-37300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-37000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-36300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-35900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-35600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-35200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-34900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-33500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-32200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-31000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-29600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-28300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-27000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-25700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-25100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-24400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-23700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-23100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-21300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-20700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1180600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>279300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-785200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-29800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>251400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-557100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-623100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-79500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>217200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>371500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1737300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>992100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>51300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>324300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-134400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>418700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>152200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-227800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>69200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>677900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>328400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>561800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>794700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>134900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>429700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7678,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>137600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-244600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-465400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-448000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>271300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>358300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-792100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-177300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>459600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>288000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>298300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-148000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>465800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>291400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>130900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>317000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-97100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-197600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-47500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>192500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-616900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>233300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-104700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>62400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-103200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,212 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>448700</v>
+      </c>
+      <c r="E8" s="3">
         <v>398900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>323300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>281500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>262400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>280500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>262700</v>
-      </c>
-      <c r="J8" s="3">
-        <v>264100</v>
       </c>
       <c r="K8" s="3">
         <v>264100</v>
       </c>
       <c r="L8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="M8" s="3">
         <v>273400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>268300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>267100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>272000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>281000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>289500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>296800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>295200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>292100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>277600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>273700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>257500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>249100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>241600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>228200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>213800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>215500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +952,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1038,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1242,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1317,10 +1340,10 @@
         <v>-1200</v>
       </c>
       <c r="E15" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F15" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-1500</v>
       </c>
       <c r="G15" s="3">
         <v>-1500</v>
@@ -1332,34 +1355,34 @@
         <v>-1500</v>
       </c>
       <c r="J15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-3200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-2600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-2900</v>
       </c>
       <c r="Q15" s="3">
         <v>-2900</v>
       </c>
       <c r="R15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>-3100</v>
       </c>
       <c r="T15" s="3">
         <v>-3100</v>
@@ -1386,13 +1409,16 @@
         <v>-3100</v>
       </c>
       <c r="AB15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AC15" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E17" s="3">
         <v>66400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>13000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>14100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>23400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>35800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>43600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>50500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>62200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>70900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>78600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>79100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>76000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>98900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>58600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>45300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>43500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>39600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>32200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>27900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>30600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>344800</v>
+      </c>
+      <c r="E18" s="3">
         <v>332500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>294600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>265800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>249400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>266400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>248000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>240700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>234700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>237600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>224700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>216600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>209800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>210100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>210900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>217700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>219200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>221100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>178700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>215100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>212200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>205600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>202000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>196000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>185900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>184900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-124000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-126300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-90000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-80500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-72400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-77000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-45000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-42400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-81500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-86200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-151400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-193400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-74500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-72500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-72600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-67400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-78800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-61800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-65100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-51700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-52000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-49200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-47800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>219700</v>
+      </c>
+      <c r="E21" s="3">
         <v>217600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>177500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>185100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>178300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>203200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>179900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>204500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>201200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>165300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>147600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>74200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>144900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>145200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>154000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>155400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>162600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>162200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>156100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>158200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>158800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>152500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>145000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>145500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E23" s="3">
         <v>208500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>168300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>175800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>168900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>194000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>171000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>195700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>192300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>156100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>138500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>65200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>16400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>136000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>136500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>145200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>146600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>153800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>99800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>153300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>147100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>149600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>150300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>144000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>136600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>137200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>40700</v>
+      </c>
+      <c r="E24" s="3">
         <v>45700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>36000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>36400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>44200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>43800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>35200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>35900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>25700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-46400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>54200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>53500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>47400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>49300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E26" s="3">
         <v>162800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>132300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>132500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>149800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>130300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>150500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>120500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>109200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>103900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>110500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>110700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>115000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>74200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>114700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>113100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>196000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>96000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>90500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>89200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>87800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E27" s="3">
         <v>158800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>128300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>132400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>128000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>149800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>130300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>150500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>148400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>120500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>103900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>110500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>110700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>115000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>74200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>114800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>113100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>196000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>96000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>90500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>89200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>87800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,17 +2471,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
@@ -2428,12 +2489,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-49800</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E32" s="3">
         <v>124000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>126300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>90000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>80500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>72400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>77000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>45000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>42400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>81500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>86200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>151400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>193400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>74000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>74500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>72500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>72600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>67400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>78800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>61800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>65100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>56000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>51700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>52000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>49200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>47800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E33" s="3">
         <v>158800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>128300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>132400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>128000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>149800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>130300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>150500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>148400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>120500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>109300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>103900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>110500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>110700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>115000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>74200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>114800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>113100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>146200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>96000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>90500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>89200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>87800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E35" s="3">
         <v>158800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>128300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>132400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>128000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>149800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>130300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>150500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>148400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>120500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>109300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>103900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>110500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>110700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>115000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>74200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>114800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>113100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>146200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>96000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>90500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>89200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>87800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,112 +3180,116 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1039400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1033500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>895800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1140400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1605800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2053800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1782500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1424200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2216300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2393700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1934100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1646100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1347700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1495800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1029900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>738600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>607700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>290700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>387800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>585400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>632900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>440400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>827800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>790900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>892100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>814300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E42" s="3">
         <v>8800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4100</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>15000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3215,8 +3305,8 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -3242,26 +3332,29 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>229500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>33200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>36700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>52100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3436,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3522,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3608,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,8 +3694,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,174 +3780,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>677100</v>
+      </c>
+      <c r="E48" s="3">
         <v>678400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>684900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>687100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>693700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>695900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>699400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>729200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>729400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>738800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>739100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>732700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>723400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>711500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>687500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>662100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>647000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>567200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>538500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>541000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>532300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>519800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>517600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>516500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>506500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>504100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>662400</v>
+      </c>
+      <c r="E49" s="3">
         <v>663500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>664700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>666000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>667500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>669100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>670600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>672100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>673700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>675500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>677300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>679200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>681700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>684500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>687400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>690300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>693300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>696500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>699600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>702800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>705900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>709000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>712200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>715300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>718500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>721000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28971200</v>
+      </c>
+      <c r="E54" s="3">
         <v>27656600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26232100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25920000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26562400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26530400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26143400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26605900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27276900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27162600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>26888300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26380400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24565800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23555700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23402700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22960700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23005700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22388000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22086500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22220400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22039400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>21275600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>20768500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20064600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>19152200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>18890100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4448,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>290300</v>
+      </c>
+      <c r="E57" s="3">
         <v>233900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>227500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>243700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>226300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>186800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>198700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>231900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>418900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>179200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>172800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>152500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>128200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>221800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>224200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>222700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>273100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>216400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>211000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>182600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>183200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>186200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>153300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>107800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>98300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>72600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,8 +4618,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4510,24 +4647,24 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>72700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>70100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>65200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4543,8 +4680,8 @@
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4567,8 +4704,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,91 +4790,97 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1075200</v>
+        <v>468800</v>
       </c>
       <c r="E61" s="3">
-        <v>924700</v>
+        <v>468500</v>
       </c>
       <c r="F61" s="3">
-        <v>973100</v>
+        <v>468200</v>
       </c>
       <c r="G61" s="3">
-        <v>1223900</v>
+        <v>467800</v>
       </c>
       <c r="H61" s="3">
+        <v>467500</v>
+      </c>
+      <c r="I61" s="3">
         <v>1217400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1217000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1095200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1095100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1095500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1095200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1247700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1395200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>695000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>644800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>544600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>344400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>439300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>344100</v>
-      </c>
-      <c r="V61" s="3">
-        <v>343900</v>
       </c>
       <c r="W61" s="3">
         <v>343900</v>
       </c>
       <c r="X61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="Y61" s="3">
         <v>364000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>383900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>383700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>383300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>382700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4962,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24209200</v>
+      </c>
+      <c r="E66" s="3">
         <v>22967000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21692700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21313200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21872300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21694200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21590100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22104300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22893700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22890300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22702000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22269700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20482700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19405400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19324400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18967500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19123000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18617700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18432900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18606500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18512800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>17814900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17433800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16804500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>16278900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>16098500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5366,7 +5534,7 @@
         <v>339000</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2898900</v>
+      </c>
+      <c r="E72" s="3">
         <v>2773100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2653400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2563100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2468700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2378500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2266200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2173100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2059400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1946900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1862000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1788300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1773000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1870000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1801400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1728500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1647600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1565200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1477200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1428700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1339000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1250300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1124500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1051500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>982300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>914400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4422900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4350600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4200400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4267800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4351100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4497300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4553200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4501700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4383200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4272300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4186300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4110700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4083200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4150400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4078300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3993200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3882600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3770300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3653600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3613900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3526600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3460700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3334700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3260100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>2873300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2791600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>165900</v>
+      </c>
+      <c r="E81" s="3">
         <v>158800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>128300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>132400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>128000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>149800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>130300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>150500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>148400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>120500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>109300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>103900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>110500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>110700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>115000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>74200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>114800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>113100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>146200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>96000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>90500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>89200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>87800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6223,43 +6422,43 @@
         <v>9100</v>
       </c>
       <c r="F83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="G83" s="3">
         <v>9300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>9400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8700</v>
-      </c>
-      <c r="R83" s="3">
-        <v>8800</v>
       </c>
       <c r="S83" s="3">
         <v>8800</v>
@@ -6271,31 +6470,34 @@
         <v>8800</v>
       </c>
       <c r="V83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="W83" s="3">
         <v>8900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8600</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>8500</v>
       </c>
       <c r="Z83" s="3">
         <v>8500</v>
       </c>
       <c r="AA83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="AB83" s="3">
         <v>8400</v>
       </c>
       <c r="AC83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="AD83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E89" s="3">
         <v>173500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>252600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>163300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>175600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>166700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>113100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>104600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>157400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>139500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>152800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>102300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>92700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>124900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>67500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>139500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>348100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>133000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>101500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>122800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>95800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>87900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>58700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>142000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>81700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-27500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-27600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-19900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-7500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1280100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1216500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-776500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>156500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-593800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-132300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>802200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-273600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-256100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>84900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-223000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>321900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-157900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>197800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-241100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-597300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-102800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-218200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-608200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-416500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-958200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-214600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-614600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,91 +7419,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-38900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-38000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-37700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-37600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-37300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-36300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-34900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-33500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-32200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-31000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-29600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-28300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-27000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-25700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-24400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-23700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23100</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-21300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-20700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-20000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,91 +7761,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1032900</v>
+      </c>
+      <c r="E100" s="3">
         <v>1180600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>279300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-785200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-29800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>251400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-557100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-623100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-79500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>217200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>371500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1737300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>992100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>51300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>324300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-134400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>418700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>152200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-227800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>69200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>677900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>328400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>561800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>794700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>134900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>429700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +7933,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>137600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-244600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-465400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-448000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>271300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>358300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-792100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-177300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>459600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>288000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>298300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-148000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>465800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>291400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>130900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>317000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-97100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-197600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-47500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>192500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-616900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>233300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-104700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>62400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-103200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>163000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OZK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>OZK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,212 +665,219 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>508400</v>
+      </c>
+      <c r="E8" s="3">
         <v>448700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>398900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>323300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>281500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>262400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>280500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>262700</v>
-      </c>
-      <c r="K8" s="3">
-        <v>264100</v>
       </c>
       <c r="L8" s="3">
         <v>264100</v>
       </c>
       <c r="M8" s="3">
+        <v>264100</v>
+      </c>
+      <c r="N8" s="3">
         <v>273400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>268300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>267100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>272000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>281000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>289500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>296800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>295200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>292100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>277600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>273700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>257500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>249100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>241600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>228200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>213800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>215500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>194400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,10 +1366,10 @@
         <v>-1200</v>
       </c>
       <c r="F15" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G15" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-1500</v>
       </c>
       <c r="H15" s="3">
         <v>-1500</v>
@@ -1358,34 +1381,34 @@
         <v>-1500</v>
       </c>
       <c r="K15" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="L15" s="3">
         <v>-3200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-2600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-2800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-2900</v>
       </c>
       <c r="R15" s="3">
         <v>-2900</v>
       </c>
       <c r="S15" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T15" s="3">
         <v>-3000</v>
-      </c>
-      <c r="T15" s="3">
-        <v>-3100</v>
       </c>
       <c r="U15" s="3">
         <v>-3100</v>
@@ -1412,13 +1435,16 @@
         <v>-3100</v>
       </c>
       <c r="AC15" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="AD15" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>-2600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>103900</v>
+        <v>193400</v>
       </c>
       <c r="E17" s="3">
+        <v>139700</v>
+      </c>
+      <c r="F17" s="3">
         <v>66400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>28700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>14100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>29400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>35800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>43600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>50500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>62200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>70900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>78600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>79100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>76000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>71000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>98900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>58600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>45300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>43500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>39600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>32200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>27900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>30600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>26300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>344800</v>
+        <v>315000</v>
       </c>
       <c r="E18" s="3">
+        <v>309000</v>
+      </c>
+      <c r="F18" s="3">
         <v>332500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>294600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>265800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>249400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>266400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>248000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>240700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>234700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>237600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>224700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>216600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>209800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>210100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>210900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>217700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>219200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>221100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>178700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>215100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>212200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>205600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>202000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>196000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>185900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>184900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>168100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-134200</v>
+        <v>-97300</v>
       </c>
       <c r="E20" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-124000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-126300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-90000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-80500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-72400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-77000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-45000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-42400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-81500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-86200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-151400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-193400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-74000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-74500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-72500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-72600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-67400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-78800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-61800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-65100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-51700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-52000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-49200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-47800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-49600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E21" s="3">
         <v>219700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>217600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>177500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>185100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>178300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>203200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>179900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>204500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>201200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>165300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>147600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>74200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>144900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>145200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>154000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>155400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>162600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>108600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>162200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>156100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>158200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>158800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>152500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>145000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>145500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>125600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E23" s="3">
         <v>210600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>208500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>168300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>175800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>168900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>194000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>171000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>195700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>192300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>156100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>138500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>65200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>16400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>136000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>136500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>145200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>146600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>153800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>99800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>153300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>147100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>149600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>150300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>144000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>136600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>137200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>118500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E24" s="3">
         <v>40700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>45700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>36000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>36400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>44200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>43800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>35600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>35900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>25700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>38600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-46400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>54200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>53500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>47400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>49300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>42500</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E26" s="3">
         <v>169900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>162800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>132300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>132500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>149800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>130300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>150500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>120500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>109200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>103900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>110500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>110700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>115000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>74200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>114700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>113100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>196000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>96000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>90500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>89200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>87800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E27" s="3">
         <v>165900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>158800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>128300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>132400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>149800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>130300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>150500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>148400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>120500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>50300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>103900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>110500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>110700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>115000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>74200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>114800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>113100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>196000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>96000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>90500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>89200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>87800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,17 +2535,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2492,12 +2553,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-49800</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>134200</v>
+        <v>97300</v>
       </c>
       <c r="E32" s="3">
+        <v>98400</v>
+      </c>
+      <c r="F32" s="3">
         <v>124000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>126300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>90000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>80500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>72400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>77000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>45000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>42400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>81500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>86200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>151400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>193400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>74000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>74500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>72500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>72600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>67400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>78800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>61800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>65100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>56000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>51700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>52000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>49200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>47800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>49600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E33" s="3">
         <v>165900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>158800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>128300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>132400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>128000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>149800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>130300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>150500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>148400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>120500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>50300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>103900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>110500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>110700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>115000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>74200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>114800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>113100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>146200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>96000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>90500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>89200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>87800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E35" s="3">
         <v>165900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>158800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>128300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>132400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>128000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>149800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>130300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>150500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>148400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>120500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>50300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>103900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>110500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>110700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>115000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>74200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>114800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>113100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>146200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>96000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>90500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>89200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>87800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,118 +3267,122 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1454800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1039400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1033500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>895800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1140400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1605800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2053800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1782500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1424200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2216300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2393700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1934100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1646100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1347700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1495800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1029900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>738600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>607700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>290700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>387800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>585400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>632900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>440400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>827800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>790900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>892100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>814300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>876100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>8800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4100</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
         <v>15000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3308,8 +3398,8 @@
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3335,26 +3425,29 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3">
         <v>229500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>33200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>36700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>52100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>93400</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3697,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,180 +3888,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>670300</v>
+      </c>
+      <c r="E48" s="3">
         <v>677100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>678400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>684900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>687100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>693700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>695900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>699400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>729200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>729400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>738800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>739100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>732700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>723400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>711500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>687500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>662100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>647000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>567200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>538500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>541000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>532300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>519800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>517600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>516500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>506500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>504100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>661200</v>
+      </c>
+      <c r="E49" s="3">
         <v>662400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>663500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>664700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>666000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>667500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>669100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>670600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>672100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>673700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>675500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>677300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>679200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>681700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>684500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>687400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>690300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>693300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>696500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>699600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>702800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>705900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>709000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>712200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>715300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>718500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>721000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>722200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30761900</v>
+      </c>
+      <c r="E54" s="3">
         <v>28971200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27656600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26232100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25920000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26562400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>26530400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>26143400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26605900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27276900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27162600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26888300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26380400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24565800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23555700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23402700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22960700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23005700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22388000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22086500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22220400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22039400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>21275600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>20768500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>20064600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>19152200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>18890100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>18451800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,94 +4579,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E57" s="3">
         <v>290300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>233900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>227500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>243700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>226300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>186800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>198700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>231900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>418900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>179200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>172800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>152500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>128200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>221800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>224200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>222700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>273100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>216400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>211000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>182600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>183200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>186200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>153300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>107800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>98300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>72600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>115300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4650,24 +4787,24 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>72700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>70100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>65200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>65500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
@@ -4683,8 +4820,8 @@
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4707,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4793,94 +4933,100 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>469000</v>
+      </c>
+      <c r="E61" s="3">
         <v>468800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>468500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>468200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>467800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>467500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1217400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1217000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1095200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1095100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1095500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1095200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1247700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1395200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>695000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>644800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>544600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>344400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>439300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>344100</v>
-      </c>
-      <c r="W61" s="3">
-        <v>343900</v>
       </c>
       <c r="X61" s="3">
         <v>343900</v>
       </c>
       <c r="Y61" s="3">
+        <v>343900</v>
+      </c>
+      <c r="Z61" s="3">
         <v>364000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>383900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>383700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>383300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>382700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>382500</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25952000</v>
+      </c>
+      <c r="E66" s="3">
         <v>24209200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22967000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21692700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21313200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21872300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21694200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>21590100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22104300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22893700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22890300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22702000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22269700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20482700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19405400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19324400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18967500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19123000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18617700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18432900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>18606500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>18512800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>17814900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>17433800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>16804500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>16278900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>16098500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>15695400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5537,7 +5705,7 @@
         <v>339000</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>339000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3026200</v>
+      </c>
+      <c r="E72" s="3">
         <v>2898900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2773100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2653400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2563100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2468700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2378500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2266200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2173100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2059400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1946900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1862000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1788300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1773000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1870000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1801400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1728500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1647600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1565200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1477200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1428700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1339000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1250300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1124500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1051500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>982300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>914400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>846600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4470900</v>
+      </c>
+      <c r="E76" s="3">
         <v>4422900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4350600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4200400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4267800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4351100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4497300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4553200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4501700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4383200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4272300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4186300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4110700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4083200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4150400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4078300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3993200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3882600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3770300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3653600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3613900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3526600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3460700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3334700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3260100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>2873300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>2791600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>2756300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>167900</v>
+      </c>
+      <c r="E81" s="3">
         <v>165900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>158800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>128300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>132400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>128000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>149800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>130300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>150500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>148400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>120500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>50300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>103900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>110500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>110700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>115000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>74200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>114800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>113100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>146200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>96000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>90500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>89200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>87800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,13 +6608,14 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="E83" s="3">
         <v>9100</v>
@@ -6425,43 +6624,43 @@
         <v>9100</v>
       </c>
       <c r="G83" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H83" s="3">
         <v>9300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8800</v>
       </c>
       <c r="T83" s="3">
         <v>8800</v>
@@ -6473,31 +6672,34 @@
         <v>8800</v>
       </c>
       <c r="W83" s="3">
+        <v>8800</v>
+      </c>
+      <c r="X83" s="3">
         <v>8900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>8600</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>8500</v>
       </c>
       <c r="AA83" s="3">
         <v>8500</v>
       </c>
       <c r="AB83" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="AC83" s="3">
         <v>8400</v>
       </c>
       <c r="AD83" s="3">
+        <v>8400</v>
+      </c>
+      <c r="AE83" s="3">
         <v>7100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>155300</v>
+      </c>
+      <c r="E89" s="3">
         <v>253100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>173500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>252600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>163300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>175600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>166700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>113100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>104600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>158300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>157400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>139500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>152800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>92700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>124900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>67500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>139500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>348100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>133000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>101500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>122800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>95800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>87900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>58700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>142000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>81700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>92000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-27500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-27600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-19900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-7500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-7500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-19100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1440200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1280100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1216500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-776500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>156500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-593800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-132300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>802200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-273600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-256100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>84900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-223000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1591700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1242400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>321900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-157900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>197800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-241100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-597300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-102800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-218200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-608200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1041200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-416500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-958200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-214600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-614600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-71500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-39900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-38900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-38000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-37700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-37600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-37300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-37000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-36300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-35900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-35600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-35200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-34900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-32200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-31000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-29600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-28300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-27000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-25700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-25100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-24400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-23700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-23100</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-21300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-20700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-14500</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,94 +8007,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1032900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1180600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>279300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-785200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>251400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-557100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-623100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-79500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>217200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>371500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1737300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>992100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>51300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>324300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-134400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>418700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>152200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-227800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>69200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>677900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>328400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>561800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>794700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>134900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>429700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>142500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E102" s="3">
         <v>5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>137600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-244600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-465400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-448000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>271300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>358300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-792100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-177300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>459600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>288000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>298300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-148000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>465800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>291400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>130900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>317000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-97100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-197600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-47500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>192500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-616900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>233300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-104700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>62400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-103200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>163000</v>
       </c>
     </row>
